--- a/data/trans_camb/P54_A_4_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P54_A_4_R-Urba-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-15,48</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-16,37</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-14,86</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-17,03</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-15,15</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-16,72</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,19; -8,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,62; -8,85</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,75; -9,23</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,66; -11,27</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,3; -10,71</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,46; -12,04</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-85,53%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-90,44%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-82,08%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-94,04%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-83,66%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-92,37%</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-96,16; -56,71</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -65,62</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-92,82; -58,88</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -76,27</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-92,48; -69,97</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-97,74; -81,23</t>
         </is>
       </c>
     </row>
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,54</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,82</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-16,27</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,87</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,57</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,4</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,57; -3,77</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,91; -6,67</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,4; -9,94</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,29; -7,16</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,44; -8,69</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,39; -8,28</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-76,65%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-93,23%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-90,45%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-77,12%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-84,96%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-83,86%</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-93,97; -27,22</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -60,61</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-97,87; -70,84</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-92,6; -45,53</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-93,56; -63,64</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-93,64; -60,21</t>
         </is>
       </c>
     </row>
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,63</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-26,16</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-23,94</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-26,6</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,61</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-26,4</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,86; 47,71</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,67; -11,05</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,92; -9,91</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,95; -14,23</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,69; 18,23</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,53; -15,82</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,22%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-90,0%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-47,76%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -1037,17 +1037,17 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
+          <t>-100,0; 7,55</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 170,45</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,7</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-15,81</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-16,38</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-16,75</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-14,2</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-16,31</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,59; -2,59</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,28; -11,13</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,76; -11,86</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,28; -11,78</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,32; -9,98</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,55; -13,11</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-68,74%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-92,87%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-86,46%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-88,42%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-78,7%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-90,41%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,39 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-89,38; -9,01</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-97,86; -80,1</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-93,27; -74,61</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-95,74; -74,93</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-88,91; -53,62</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-95,43; -83,14</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P54_A_4_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P54_A_4_R-Urba-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -599,467 +608,319 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-15,48</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-16,37</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-14,86</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-17,03</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-15,15</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-16,72</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-15.60875986710896</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-16.45701248464216</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-14.99399397319317</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-17.08075262501161</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>-15.27700826081185</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>-16.79640417804796</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-30,19; -8,0</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-29,62; -8,85</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-21,75; -9,23</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-23,66; -11,27</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-22,3; -10,71</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-23,46; -12,04</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-29.18355279871612</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-29.60798897139972</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-21.67994292699571</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-23.64681688687461</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-22.02843901146272</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-23.50233684018448</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-85,53%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-90,44%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-82,08%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-94,04%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-83,66%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-92,37%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>-8.10403513635579</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>-8.848571767722847</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>-8.813212881058572</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>-11.33348850164421</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>-10.40984050181975</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>-12.07711683144159</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-96,16; -56,71</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; -65,62</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-92,82; -58,88</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; -76,27</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-92,48; -69,97</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-97,74; -81,23</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>-0.8623125957271413</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>-0.9091746733479742</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>-0.8280429690385235</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>-0.9432841671347623</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>-0.8438214263847608</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.9277448496255641</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-10,54</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-12,82</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-16,27</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-13,87</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-13,57</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-13,4</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-0.9690489601550746</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.9390832355267571</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.9276799692245747</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.9770179410678907</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-17,57; -3,77</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-19,91; -6,67</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-23,4; -9,94</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-21,29; -7,16</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-18,44; -8,69</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-18,39; -8,28</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>-0.633700200776851</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>-0.6810004481408268</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>-0.6174298211601104</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>-0.7766732440451911</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>-0.7049442799308322</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>-0.8204597996482119</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-76,65%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-93,23%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-90,45%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-77,12%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-84,96%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-83,86%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>-10.43769733363368</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-12.97480166348301</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-16.06579391189478</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-14.06237227040053</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>-13.39105470192655</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>-13.5908610211402</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-93,97; -27,22</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; -60,61</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-97,87; -70,84</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-92,6; -45,53</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-93,56; -63,64</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-93,64; -60,21</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-18.3157273958005</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-20.10201288605081</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-23.41602990349986</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-21.40102287299264</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-18.24751093443934</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>-18.70129320140214</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-1,63</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-26,16</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-23,94</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-26,6</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-12,61</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-26,4</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>-3.956595666129085</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>-6.899304683532272</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>-9.843202938159092</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>-7.370234756258324</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>-8.665476685678374</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>-8.50641298300064</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-34,86; 47,71</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-52,67; -11,05</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-40,92; -9,91</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-43,95; -14,23</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-29,69; 18,23</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-40,53; -15,82</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>-0.7592259152051252</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>-0.9437719214007433</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-0.8932238919607071</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>-0.7818379196478863</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>-0.8381576811267977</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.8506637312411697</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-6,22%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-90,0%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-47,76%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-0.9486848193020874</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.9746003067712322</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.9315299232087055</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.9300375279992846</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.9390732108048763</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 7,55</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 170,45</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>-0.2870450909312908</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>-0.6623880402469658</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>-0.6666663662218513</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>-0.5114440195184906</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>-0.6421489449367046</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>-0.6199514582669123</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1067,153 +928,301 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>-11,7</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-15,81</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-16,38</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>-16,75</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>-14,2</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>-16,31</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>0.6451430234092947</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-26.15601702216644</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-24.31043447072128</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>-26.59845939750177</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>-12.74094607608346</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>-26.40392031512035</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-18,59; -2,59</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-22,28; -11,13</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-20,76; -11,86</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-21,28; -11,78</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>-18,32; -9,98</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>-20,55; -13,11</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-32.18543580485218</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-52.66549507935738</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-41.68160576993547</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>-43.94888962792698</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>-29.3930675551893</v>
+      </c>
+      <c r="H17" s="5" t="n">
+        <v>-40.53078089839607</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>-68,74%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>-92,87%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-86,46%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>-88,42%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>-78,7%</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>-90,41%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>50.76905256173168</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>-11.04881046046201</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>-9.408244361877628</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>-14.23095248531288</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>23.69579896565279</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>-15.81627510284591</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>-89,38; -9,01</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-97,86; -80,1</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-93,27; -74,61</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>-95,74; -74,93</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>-88,91; -53,62</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>-95,43; -83,14</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>0.02466518594411967</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>-0.9139790431999459</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>-0.482539938161656</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="inlineStr"/>
+      <c r="D20" s="6" t="inlineStr"/>
+      <c r="E20" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F20" s="6" t="inlineStr"/>
+      <c r="G20" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H20" s="6" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="inlineStr"/>
+      <c r="D21" s="6" t="inlineStr"/>
+      <c r="E21" s="6" t="n">
+        <v>-0.2164647819185781</v>
+      </c>
+      <c r="F21" s="6" t="inlineStr"/>
+      <c r="G21" s="6" t="n">
+        <v>1.679628843011575</v>
+      </c>
+      <c r="H21" s="6" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-11.86285878988575</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-15.92806562085593</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>-16.38592720569897</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>-16.8654711735283</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>-14.2605997879701</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>-16.42172463015413</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-18.67462770485087</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-22.43599998826326</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-20.62851567582505</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>-21.29604836487334</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>-18.08051040434918</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>-20.67815562334413</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>-3.78322859947298</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>-11.24509158172733</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>-11.63405893562655</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>-12.00384104148934</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>-10.04232575834117</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>-13.30073866895848</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>-0.6967620097266386</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>-0.9355309044483906</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>-0.8648740401919008</v>
+      </c>
+      <c r="F25" s="6" t="n">
+        <v>-0.8901850966673599</v>
+      </c>
+      <c r="G25" s="6" t="n">
+        <v>-0.7905266728262259</v>
+      </c>
+      <c r="H25" s="6" t="n">
+        <v>-0.9103271620381195</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.8912361098213031</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-0.9815772215936565</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.9297203535289281</v>
+      </c>
+      <c r="F26" s="6" t="n">
+        <v>-0.9591636826756142</v>
+      </c>
+      <c r="G26" s="6" t="n">
+        <v>-0.8817411352203014</v>
+      </c>
+      <c r="H26" s="6" t="n">
+        <v>-0.9573212635162951</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>-0.104138536022659</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>-0.8261791770877451</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>-0.7395112997110764</v>
+      </c>
+      <c r="F27" s="6" t="n">
+        <v>-0.7715330171271567</v>
+      </c>
+      <c r="G27" s="6" t="n">
+        <v>-0.5449532988880538</v>
+      </c>
+      <c r="H27" s="6" t="n">
+        <v>-0.8404023753301213</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1221,14 +1230,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
